--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,28 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>worst</t>
+    <t>dangerous</t>
   </si>
   <si>
     <t>addicted</t>
@@ -64,13 +70,10 @@
     <t>wrong</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>hate</t>
   </si>
   <si>
     <t>shit</t>
@@ -79,40 +82,34 @@
     <t>behind</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>social</t>
@@ -476,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,10 +481,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -545,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -563,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -595,13 +592,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -613,19 +610,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.92</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -637,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -645,13 +642,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -663,31 +660,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>0.9</v>
+      </c>
+      <c r="L5">
+        <v>45</v>
+      </c>
+      <c r="M5">
+        <v>45</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -695,13 +692,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -716,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <v>0.8</v>
@@ -745,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -766,16 +763,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -787,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -816,16 +813,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.5866666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -837,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -845,13 +842,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.675</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -863,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9">
         <v>0.5172413793103449</v>
@@ -895,13 +892,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5882352941176471</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -913,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -937,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -945,13 +942,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5789473684210527</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -963,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.04280510018214936</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -987,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1051</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -995,13 +992,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4492753623188406</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1013,7 +1010,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>76</v>
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>0.03642987249544627</v>
+      </c>
+      <c r="L12">
+        <v>40</v>
+      </c>
+      <c r="M12">
+        <v>40</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1058</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1021,13 +1042,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4347826086956522</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1039,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1047,13 +1068,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4042553191489361</v>
+        <v>0.45</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1065,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1073,13 +1094,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3461538461538461</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1091,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1099,13 +1120,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3214285714285715</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1117,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1125,13 +1146,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.282051282051282</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1143,33 +1164,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
